--- a/excel/data_input/course_test.xlsx
+++ b/excel/data_input/course_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DO_AN\Timetable-Generator-GA\file\data_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DO_AN\lumagas\excel\data_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAAF4D4-7305-4D89-9AD5-7F3C4A13C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64EE556-3660-47B2-B4D5-9FC6D751DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,94 +36,94 @@
     <t>Mã_giảng_viên</t>
   </si>
   <si>
+    <t>Mã_môn_học</t>
+  </si>
+  <si>
+    <t>Tên_môn_học</t>
+  </si>
+  <si>
+    <t>Số_lượng_sinh_viên</t>
+  </si>
+  <si>
+    <t>GVIUH001</t>
+  </si>
+  <si>
+    <t>Nhập môn lập trình</t>
+  </si>
+  <si>
+    <t>NMLT</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh</t>
+  </si>
+  <si>
+    <t>LHP_NMLT_NTA_18A</t>
+  </si>
+  <si>
+    <t>LHP_NMLT_NTA_18B</t>
+  </si>
+  <si>
+    <t>LHP_NMLT_NTA_18C</t>
+  </si>
+  <si>
+    <t>LHP_NMLT_NTA_18D</t>
+  </si>
+  <si>
+    <t>LHP_NMLT_NTA_18E</t>
+  </si>
+  <si>
+    <t>DHCNTT18A</t>
+  </si>
+  <si>
+    <t>KTLT</t>
+  </si>
+  <si>
+    <t>Kỹ thuật lập trình</t>
+  </si>
+  <si>
+    <t>DHCNTT18B</t>
+  </si>
+  <si>
+    <t>DHCNTT18C</t>
+  </si>
+  <si>
+    <t>DHCNTT18E</t>
+  </si>
+  <si>
+    <t>DHCNTT18D</t>
+  </si>
+  <si>
+    <t>LHP_KTLT_NTA_17A</t>
+  </si>
+  <si>
+    <t>DHCNTT17A</t>
+  </si>
+  <si>
+    <t>DHCNTT17B</t>
+  </si>
+  <si>
+    <t>DHCNTT17C</t>
+  </si>
+  <si>
+    <t>DHCNTT17D</t>
+  </si>
+  <si>
+    <t>DHCNTT17E</t>
+  </si>
+  <si>
+    <t>LHP_KTLT_NTA_17B</t>
+  </si>
+  <si>
+    <t>LHP_KTLT_NTA_17C</t>
+  </si>
+  <si>
+    <t>LHP_KTLT_NTA_17D</t>
+  </si>
+  <si>
+    <t>LHP_KTLT_NTA_17E</t>
+  </si>
+  <si>
     <t>Tên_giảng_viên</t>
-  </si>
-  <si>
-    <t>Mã_môn_học</t>
-  </si>
-  <si>
-    <t>Tên_môn_học</t>
-  </si>
-  <si>
-    <t>Số_lượng_sinh_viên</t>
-  </si>
-  <si>
-    <t>GVIUH001</t>
-  </si>
-  <si>
-    <t>Nhập môn lập trình</t>
-  </si>
-  <si>
-    <t>NMLT</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Anh</t>
-  </si>
-  <si>
-    <t>LHP_NMLT_NTA_18A</t>
-  </si>
-  <si>
-    <t>LHP_NMLT_NTA_18B</t>
-  </si>
-  <si>
-    <t>LHP_NMLT_NTA_18C</t>
-  </si>
-  <si>
-    <t>LHP_NMLT_NTA_18D</t>
-  </si>
-  <si>
-    <t>LHP_NMLT_NTA_18E</t>
-  </si>
-  <si>
-    <t>DHCNTT18A</t>
-  </si>
-  <si>
-    <t>KTLT</t>
-  </si>
-  <si>
-    <t>Kỹ thuật lập trình</t>
-  </si>
-  <si>
-    <t>DHCNTT18B</t>
-  </si>
-  <si>
-    <t>DHCNTT18C</t>
-  </si>
-  <si>
-    <t>DHCNTT18E</t>
-  </si>
-  <si>
-    <t>DHCNTT18D</t>
-  </si>
-  <si>
-    <t>LHP_KTLT_NTA_17A</t>
-  </si>
-  <si>
-    <t>DHCNTT17A</t>
-  </si>
-  <si>
-    <t>DHCNTT17B</t>
-  </si>
-  <si>
-    <t>DHCNTT17C</t>
-  </si>
-  <si>
-    <t>DHCNTT17D</t>
-  </si>
-  <si>
-    <t>DHCNTT17E</t>
-  </si>
-  <si>
-    <t>LHP_KTLT_NTA_17B</t>
-  </si>
-  <si>
-    <t>LHP_KTLT_NTA_17C</t>
-  </si>
-  <si>
-    <t>LHP_KTLT_NTA_17D</t>
-  </si>
-  <si>
-    <t>LHP_KTLT_NTA_17E</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,36 +478,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>60</v>
@@ -515,22 +515,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G3" s="1">
         <v>60</v>
@@ -538,22 +538,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>60</v>
@@ -561,22 +561,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
@@ -584,22 +584,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>60</v>
@@ -607,22 +607,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>60</v>
@@ -630,22 +630,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>60</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G9" s="1">
         <v>60</v>
@@ -676,22 +676,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>60</v>
@@ -699,22 +699,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>60</v>

--- a/excel/data_input/course_test.xlsx
+++ b/excel/data_input/course_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DO_AN\lumagas\excel\data_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64EE556-3660-47B2-B4D5-9FC6D751DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E85D225-B5F5-42B2-891D-E8057F347998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
   <si>
     <t>Mã_lớp_học_phần</t>
   </si>
@@ -124,6 +124,132 @@
   </si>
   <si>
     <t>Tên_giảng_viên</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_16A</t>
+  </si>
+  <si>
+    <t>DHCNTT16A</t>
+  </si>
+  <si>
+    <t>GVIUH002</t>
+  </si>
+  <si>
+    <t>Lương Văn Sơn</t>
+  </si>
+  <si>
+    <t>QTVBTHT</t>
+  </si>
+  <si>
+    <t>Quản trị và bảo trị hệ thống</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_16B</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_16C</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_16D</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_16E</t>
+  </si>
+  <si>
+    <t>GVIUH003</t>
+  </si>
+  <si>
+    <t>Công nghệ mới</t>
+  </si>
+  <si>
+    <t>DHCNTT16B</t>
+  </si>
+  <si>
+    <t>DHCNTT16C</t>
+  </si>
+  <si>
+    <t>DHCNTT16D</t>
+  </si>
+  <si>
+    <t>DHCNTT16E</t>
+  </si>
+  <si>
+    <t>DHCNTT15A</t>
+  </si>
+  <si>
+    <t>DHCNTT15B</t>
+  </si>
+  <si>
+    <t>DHCNTT15C</t>
+  </si>
+  <si>
+    <t>DHCNTT15D</t>
+  </si>
+  <si>
+    <t>DHCNTT15E</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_15A</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_15B</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_15C</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_15D</t>
+  </si>
+  <si>
+    <t>LHP_QTVBTHT_LVS_15E</t>
+  </si>
+  <si>
+    <t>CNM</t>
+  </si>
+  <si>
+    <t>LHP_HTMT_TVB_18A</t>
+  </si>
+  <si>
+    <t>Trần Văn Bình</t>
+  </si>
+  <si>
+    <t>HTMT</t>
+  </si>
+  <si>
+    <t>Hệ thống máy tính</t>
+  </si>
+  <si>
+    <t>LHP_HTMT_TVB_18B</t>
+  </si>
+  <si>
+    <t>LHP_HTMT_TVB_18C</t>
+  </si>
+  <si>
+    <t>LHP_HTMT_TVB_18D</t>
+  </si>
+  <si>
+    <t>LHP_HTMT_TVB_18E</t>
+  </si>
+  <si>
+    <t>LHP_HCSDL_TVB_17A</t>
+  </si>
+  <si>
+    <t>LHP_HCSDL_TVB_17B</t>
+  </si>
+  <si>
+    <t>LHP_HCSDL_TVB_17C</t>
+  </si>
+  <si>
+    <t>LHP_HCSDL_TVB_17E</t>
+  </si>
+  <si>
+    <t>LHP_HCSDL_TVB_17D</t>
+  </si>
+  <si>
+    <t>HCSDL</t>
+  </si>
+  <si>
+    <t>Hệ cơ sở dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -450,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +589,7 @@
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,6 +846,466 @@
         <v>60</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
